--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/GN1_Backlog_VNo3.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/GN1_Backlog_VNo3.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPE\Analisis&amp;Diseño\27837_G1_ADS\PREGAME\1. ELICITACIÓN\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE7A3D9-9A80-4F6D-BD12-F8B43AF4C255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105633EF-5031-4F31-AB8A-F5D4449395BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="sprint0" sheetId="2" r:id="rId2"/>
     <sheet name="burdonchart (2)" sheetId="7" r:id="rId3"/>
-    <sheet name="burdonchart" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="116">
   <si>
     <t>Tema</t>
   </si>
@@ -103,12 +102,6 @@
   </si>
   <si>
     <t>Total de Horas</t>
-  </si>
-  <si>
-    <t>REQ001-1</t>
-  </si>
-  <si>
-    <t>REQ001-2</t>
   </si>
   <si>
     <t>Horas Estimadas</t>
@@ -118,9 +111,6 @@
 Restantes</t>
   </si>
   <si>
-    <t>Durante el proceso de desarrollo del producto software,CONCLUSION DEL ESFUERZO CALCULADO</t>
-  </si>
-  <si>
     <t>RF01-A</t>
   </si>
   <si>
@@ -203,54 +193,6 @@
   </si>
   <si>
     <t>Asignado</t>
-  </si>
-  <si>
-    <t>RF01-A-1</t>
-  </si>
-  <si>
-    <t>RF01-A-2</t>
-  </si>
-  <si>
-    <t>RF01-A-3</t>
-  </si>
-  <si>
-    <t>RF01-A-4</t>
-  </si>
-  <si>
-    <t>RF01-B-1</t>
-  </si>
-  <si>
-    <t>RF01-B-2</t>
-  </si>
-  <si>
-    <t>RF01-B-3</t>
-  </si>
-  <si>
-    <t>RF01-C-1</t>
-  </si>
-  <si>
-    <t>RF01-C-2</t>
-  </si>
-  <si>
-    <t>RF01-C-3</t>
-  </si>
-  <si>
-    <t>RF01-D-1</t>
-  </si>
-  <si>
-    <t>RF01-D-2</t>
-  </si>
-  <si>
-    <t>RF01-D-3</t>
-  </si>
-  <si>
-    <t>RF02-1</t>
-  </si>
-  <si>
-    <t>RF02-2</t>
-  </si>
-  <si>
-    <t>RF02-3</t>
   </si>
   <si>
     <t>RECOMENDACIÓN</t>
@@ -452,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -484,11 +426,6 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -579,7 +516,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,12 +527,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AA84F"/>
-        <bgColor rgb="FF6AA84F"/>
       </patternFill>
     </fill>
     <fill>
@@ -768,9 +699,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -786,117 +717,95 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1075,7 +984,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'burdonchart (2)'!$B$20:$S$20</c:f>
+              <c:f>'burdonchart (2)'!$B$16:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1083,52 +992,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -1163,7 +1072,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'burdonchart (2)'!$B$21:$S$21</c:f>
+              <c:f>'burdonchart (2)'!$B$17:$S$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1171,52 +1080,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.75</c:v>
+                  <c:v>27.1875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.5</c:v>
+                  <c:v>25.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.25</c:v>
+                  <c:v>23.5625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>21.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.75</c:v>
+                  <c:v>19.9375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.5</c:v>
+                  <c:v>18.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.25</c:v>
+                  <c:v>16.3125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.75</c:v>
+                  <c:v>12.6875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.5</c:v>
+                  <c:v>10.875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.25</c:v>
+                  <c:v>9.0625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.75</c:v>
+                  <c:v>5.4375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5</c:v>
+                  <c:v>3.625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.25</c:v>
+                  <c:v>1.8125</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -1490,287 +1399,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13054470691163605"/>
-          <c:y val="5.7502246181491468E-2"/>
-          <c:w val="0.869455293088364"/>
-          <c:h val="0.78993880481920897"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>burdonchart!$B$10:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1462-431B-AAF3-0E0A82C758EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cmpd="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>burdonchart!$B$11:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1462-431B-AAF3-0E0A82C758EF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="358306622"/>
-        <c:axId val="802544006"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="358306622"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-EC"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="900" b="0" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="802544006"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="802544006"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-EC"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr sz="900" b="0" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="358306622"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="900" b="0" i="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -1809,64 +1437,14 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="362873004" name="Chart 1" title="Gráfico">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC00A115}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8BA7F96F-7AE8-4295-9FFC-8CF12F936BC8}" name="Table_13" displayName="Table_13" ref="T3:T18" headerRowCount="0" headerRowDxfId="3" dataDxfId="2" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8BA7F96F-7AE8-4295-9FFC-8CF12F936BC8}" name="Table_13" displayName="Table_13" ref="T3:T14" headerRowCount="0" headerRowDxfId="3" dataDxfId="2" totalsRowDxfId="1">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="0">
       <calculatedColumnFormula>SUM(D3:S3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="burdonchart-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="I4:I5" headerRowCount="0">
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo name="burdonchart-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
-    </ext>
-  </extLst>
 </table>
 </file>
 
@@ -2073,7 +1651,7 @@
   </sheetPr>
   <dimension ref="A1:Z984"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2132,82 +1710,82 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" s="16" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3203,8 +2781,8 @@
   </sheetPr>
   <dimension ref="A1:AA948"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A8" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3235,7 +2813,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>11</v>
@@ -3269,523 +2847,523 @@
     </row>
     <row r="4" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="25" t="s">
+      <c r="B13" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>30</v>
+      <c r="H13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="G15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="19">
+      <c r="B15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="G16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="19">
+      <c r="B16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="G16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="G17" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="19">
+      <c r="B17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="G17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="G18" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="19">
+      <c r="B18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="22"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>30</v>
+      <c r="B20" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19">
+      <c r="B22" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19">
+      <c r="B23" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19">
+      <c r="B24" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19">
+    <row r="25" spans="2:9" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="B26" s="14"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>30</v>
+      <c r="B27" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="19">
+      <c r="B29" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="19">
+      <c r="B30" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:9" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="19">
+    <row r="31" spans="2:9" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="17"/>
+      <c r="I31" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="19">
+      <c r="B32" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="17"/>
+      <c r="I32" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="19"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4703,7 +4281,7 @@
     <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -4714,1237 +4292,997 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC993"/>
+  <dimension ref="A1:AC989"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="29" customWidth="1"/>
-    <col min="3" max="19" width="12.44140625" style="29" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" style="29" customWidth="1"/>
-    <col min="21" max="37" width="12.44140625" style="29" customWidth="1"/>
-    <col min="38" max="16384" width="12.5546875" style="29"/>
+    <col min="1" max="1" width="4.33203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="22" customWidth="1"/>
+    <col min="3" max="19" width="12.44140625" style="22" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" style="22" customWidth="1"/>
+    <col min="21" max="37" width="12.44140625" style="22" customWidth="1"/>
+    <col min="38" max="16384" width="12.5546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:20" s="39" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43"/>
-      <c r="C2" s="40" t="s">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:29" s="31" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="35"/>
+      <c r="C2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="42" t="s">
+      <c r="D2" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="37">
+    <row r="3" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="30">
         <v>2</v>
       </c>
-      <c r="D3" s="34">
-        <v>0</v>
-      </c>
-      <c r="E3" s="34">
-        <v>0</v>
-      </c>
-      <c r="F3" s="34">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0</v>
-      </c>
-      <c r="I3" s="34">
-        <v>0</v>
-      </c>
-      <c r="J3" s="34">
-        <v>0</v>
-      </c>
-      <c r="K3" s="34">
-        <v>0</v>
-      </c>
-      <c r="L3" s="34">
-        <v>0</v>
-      </c>
-      <c r="M3" s="34">
-        <v>0</v>
-      </c>
-      <c r="N3" s="34">
-        <v>0</v>
-      </c>
-      <c r="O3" s="34">
-        <v>0</v>
-      </c>
-      <c r="P3" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="34">
-        <v>0</v>
-      </c>
-      <c r="R3" s="34">
-        <v>0</v>
-      </c>
-      <c r="S3" s="34">
+      <c r="D3" s="27">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27">
+        <v>0</v>
+      </c>
+      <c r="L3" s="27">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27">
+        <v>0</v>
+      </c>
+      <c r="N3" s="27">
+        <v>0</v>
+      </c>
+      <c r="O3" s="27">
+        <v>0</v>
+      </c>
+      <c r="P3" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>0</v>
+      </c>
+      <c r="R3" s="27">
+        <v>1</v>
+      </c>
+      <c r="S3" s="27">
+        <v>1</v>
+      </c>
+      <c r="T3" s="26">
+        <f t="shared" ref="T3:T14" si="0">SUM(D3:S3)</f>
         <v>2</v>
       </c>
-      <c r="T3" s="33">
-        <f t="shared" ref="T3:T18" si="0">SUM(D3:S3)</f>
+    </row>
+    <row r="4" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="30">
+        <v>3</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0</v>
+      </c>
+      <c r="H4" s="27">
+        <v>0</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0</v>
+      </c>
+      <c r="J4" s="27">
+        <v>0</v>
+      </c>
+      <c r="K4" s="27">
+        <v>0</v>
+      </c>
+      <c r="L4" s="27">
+        <v>0</v>
+      </c>
+      <c r="M4" s="27">
+        <v>0</v>
+      </c>
+      <c r="N4" s="27">
+        <v>0</v>
+      </c>
+      <c r="O4" s="27">
+        <v>0</v>
+      </c>
+      <c r="P4" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="27">
         <v>2</v>
       </c>
+      <c r="R4" s="27">
+        <v>0</v>
+      </c>
+      <c r="S4" s="27">
+        <v>0</v>
+      </c>
+      <c r="T4" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="37">
+    <row r="5" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="30">
+        <v>3</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0</v>
+      </c>
+      <c r="J5" s="27">
+        <v>0</v>
+      </c>
+      <c r="K5" s="27">
+        <v>0</v>
+      </c>
+      <c r="L5" s="27">
+        <v>0</v>
+      </c>
+      <c r="M5" s="27">
+        <v>1</v>
+      </c>
+      <c r="N5" s="27">
+        <v>1</v>
+      </c>
+      <c r="O5" s="27">
+        <v>1</v>
+      </c>
+      <c r="P5" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>0</v>
+      </c>
+      <c r="R5" s="27">
+        <v>0</v>
+      </c>
+      <c r="S5" s="27">
+        <v>0</v>
+      </c>
+      <c r="T5" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D4" s="34">
-        <v>0</v>
-      </c>
-      <c r="E4" s="34">
-        <v>0</v>
-      </c>
-      <c r="F4" s="34">
-        <v>0</v>
-      </c>
-      <c r="G4" s="34">
-        <v>0</v>
-      </c>
-      <c r="H4" s="34">
-        <v>0</v>
-      </c>
-      <c r="I4" s="34">
-        <v>0</v>
-      </c>
-      <c r="J4" s="34">
-        <v>0</v>
-      </c>
-      <c r="K4" s="34">
-        <v>0</v>
-      </c>
-      <c r="L4" s="34">
-        <v>0</v>
-      </c>
-      <c r="M4" s="34">
-        <v>0</v>
-      </c>
-      <c r="N4" s="34">
-        <v>0</v>
-      </c>
-      <c r="O4" s="34">
-        <v>0</v>
-      </c>
-      <c r="P4" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="34">
-        <v>0</v>
-      </c>
-      <c r="R4" s="34">
-        <v>0</v>
-      </c>
-      <c r="S4" s="34">
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <v>0</v>
+      </c>
+      <c r="K6" s="27">
+        <v>0</v>
+      </c>
+      <c r="L6" s="27">
+        <v>0</v>
+      </c>
+      <c r="M6" s="27">
         <v>2</v>
       </c>
-      <c r="T4" s="33">
+      <c r="N6" s="27">
+        <v>0</v>
+      </c>
+      <c r="O6" s="27">
+        <v>0</v>
+      </c>
+      <c r="P6" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>0</v>
+      </c>
+      <c r="R6" s="27">
+        <v>0</v>
+      </c>
+      <c r="S6" s="27">
+        <v>0</v>
+      </c>
+      <c r="T6" s="26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="37">
+    <row r="7" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="30">
+        <v>2</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27">
+        <v>0</v>
+      </c>
+      <c r="L7" s="27">
+        <v>2</v>
+      </c>
+      <c r="M7" s="27">
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
+        <v>0</v>
+      </c>
+      <c r="O7" s="27">
+        <v>0</v>
+      </c>
+      <c r="P7" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>0</v>
+      </c>
+      <c r="R7" s="27">
+        <v>0</v>
+      </c>
+      <c r="S7" s="27">
+        <v>0</v>
+      </c>
+      <c r="T7" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="30">
         <v>3</v>
       </c>
-      <c r="D5" s="34">
-        <v>0</v>
-      </c>
-      <c r="E5" s="34">
-        <v>0</v>
-      </c>
-      <c r="F5" s="34">
-        <v>0</v>
-      </c>
-      <c r="G5" s="34">
-        <v>0</v>
-      </c>
-      <c r="H5" s="34">
-        <v>0</v>
-      </c>
-      <c r="I5" s="34">
-        <v>0</v>
-      </c>
-      <c r="J5" s="34">
-        <v>0</v>
-      </c>
-      <c r="K5" s="34">
-        <v>0</v>
-      </c>
-      <c r="L5" s="34">
-        <v>0</v>
-      </c>
-      <c r="M5" s="34">
-        <v>0</v>
-      </c>
-      <c r="N5" s="34">
-        <v>0</v>
-      </c>
-      <c r="O5" s="34">
-        <v>0</v>
-      </c>
-      <c r="P5" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="34">
-        <v>0</v>
-      </c>
-      <c r="R5" s="34">
-        <v>0</v>
-      </c>
-      <c r="S5" s="34">
-        <v>3</v>
-      </c>
-      <c r="T5" s="33">
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27">
+        <v>1</v>
+      </c>
+      <c r="K8" s="27">
+        <v>2</v>
+      </c>
+      <c r="L8" s="27">
+        <v>0</v>
+      </c>
+      <c r="M8" s="27">
+        <v>0</v>
+      </c>
+      <c r="N8" s="27">
+        <v>0</v>
+      </c>
+      <c r="O8" s="27">
+        <v>0</v>
+      </c>
+      <c r="P8" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>0</v>
+      </c>
+      <c r="R8" s="27">
+        <v>0</v>
+      </c>
+      <c r="S8" s="27">
+        <v>0</v>
+      </c>
+      <c r="T8" s="26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="37">
-        <v>1</v>
-      </c>
-      <c r="D6" s="34">
-        <v>0</v>
-      </c>
-      <c r="E6" s="34">
-        <v>0</v>
-      </c>
-      <c r="F6" s="34">
-        <v>0</v>
-      </c>
-      <c r="G6" s="34">
-        <v>0</v>
-      </c>
-      <c r="H6" s="34">
-        <v>0</v>
-      </c>
-      <c r="I6" s="34">
-        <v>0</v>
-      </c>
-      <c r="J6" s="34">
-        <v>0</v>
-      </c>
-      <c r="K6" s="34">
-        <v>0</v>
-      </c>
-      <c r="L6" s="34">
-        <v>0</v>
-      </c>
-      <c r="M6" s="34">
-        <v>0</v>
-      </c>
-      <c r="N6" s="34">
-        <v>0</v>
-      </c>
-      <c r="O6" s="34">
-        <v>0</v>
-      </c>
-      <c r="P6" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="34">
-        <v>0</v>
-      </c>
-      <c r="R6" s="34">
-        <v>1</v>
-      </c>
-      <c r="S6" s="34">
-        <v>0</v>
-      </c>
-      <c r="T6" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="37">
+    <row r="9" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="30">
         <v>2</v>
       </c>
-      <c r="D7" s="34">
-        <v>0</v>
-      </c>
-      <c r="E7" s="34">
-        <v>0</v>
-      </c>
-      <c r="F7" s="34">
-        <v>0</v>
-      </c>
-      <c r="G7" s="34">
-        <v>0</v>
-      </c>
-      <c r="H7" s="34">
-        <v>0</v>
-      </c>
-      <c r="I7" s="34">
-        <v>0</v>
-      </c>
-      <c r="J7" s="34">
-        <v>0</v>
-      </c>
-      <c r="K7" s="34">
-        <v>0</v>
-      </c>
-      <c r="L7" s="34">
-        <v>0</v>
-      </c>
-      <c r="M7" s="34">
-        <v>0</v>
-      </c>
-      <c r="N7" s="34">
-        <v>0</v>
-      </c>
-      <c r="O7" s="34">
-        <v>0</v>
-      </c>
-      <c r="P7" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="34">
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0</v>
+      </c>
+      <c r="I9" s="27">
         <v>2</v>
       </c>
-      <c r="R7" s="34">
-        <v>0</v>
-      </c>
-      <c r="S7" s="34">
-        <v>0</v>
-      </c>
-      <c r="T7" s="33">
+      <c r="J9" s="27">
+        <v>0</v>
+      </c>
+      <c r="K9" s="27">
+        <v>0</v>
+      </c>
+      <c r="L9" s="27">
+        <v>0</v>
+      </c>
+      <c r="M9" s="27">
+        <v>0</v>
+      </c>
+      <c r="N9" s="27">
+        <v>0</v>
+      </c>
+      <c r="O9" s="27">
+        <v>0</v>
+      </c>
+      <c r="P9" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="27">
+        <v>0</v>
+      </c>
+      <c r="R9" s="27">
+        <v>0</v>
+      </c>
+      <c r="S9" s="27">
+        <v>0</v>
+      </c>
+      <c r="T9" s="26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="37">
+    <row r="10" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="30">
         <v>2</v>
       </c>
-      <c r="D8" s="34">
-        <v>0</v>
-      </c>
-      <c r="E8" s="34">
-        <v>0</v>
-      </c>
-      <c r="F8" s="34">
-        <v>0</v>
-      </c>
-      <c r="G8" s="34">
-        <v>0</v>
-      </c>
-      <c r="H8" s="34">
-        <v>0</v>
-      </c>
-      <c r="I8" s="34">
-        <v>0</v>
-      </c>
-      <c r="J8" s="34">
-        <v>0</v>
-      </c>
-      <c r="K8" s="34">
-        <v>0</v>
-      </c>
-      <c r="L8" s="34">
-        <v>0</v>
-      </c>
-      <c r="M8" s="34">
-        <v>0</v>
-      </c>
-      <c r="N8" s="34">
-        <v>0</v>
-      </c>
-      <c r="O8" s="34">
-        <v>0</v>
-      </c>
-      <c r="P8" s="34">
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27">
         <v>2</v>
       </c>
-      <c r="Q8" s="34">
-        <v>0</v>
-      </c>
-      <c r="R8" s="34">
-        <v>0</v>
-      </c>
-      <c r="S8" s="34">
-        <v>0</v>
-      </c>
-      <c r="T8" s="33">
+      <c r="I10" s="27">
+        <v>0</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0</v>
+      </c>
+      <c r="K10" s="27">
+        <v>0</v>
+      </c>
+      <c r="L10" s="27">
+        <v>0</v>
+      </c>
+      <c r="M10" s="27">
+        <v>0</v>
+      </c>
+      <c r="N10" s="27">
+        <v>0</v>
+      </c>
+      <c r="O10" s="27">
+        <v>0</v>
+      </c>
+      <c r="P10" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>0</v>
+      </c>
+      <c r="R10" s="27">
+        <v>0</v>
+      </c>
+      <c r="S10" s="27">
+        <v>0</v>
+      </c>
+      <c r="T10" s="36">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="37">
+    <row r="11" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="30">
+        <v>2</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0</v>
+      </c>
+      <c r="G11" s="27">
+        <v>2</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0</v>
+      </c>
+      <c r="K11" s="27">
+        <v>0</v>
+      </c>
+      <c r="L11" s="27">
+        <v>0</v>
+      </c>
+      <c r="M11" s="27">
+        <v>0</v>
+      </c>
+      <c r="N11" s="27">
+        <v>0</v>
+      </c>
+      <c r="O11" s="27">
+        <v>0</v>
+      </c>
+      <c r="P11" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>0</v>
+      </c>
+      <c r="R11" s="27">
+        <v>0</v>
+      </c>
+      <c r="S11" s="27">
+        <v>0</v>
+      </c>
+      <c r="T11" s="36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="30">
         <v>3</v>
       </c>
-      <c r="D9" s="34">
-        <v>0</v>
-      </c>
-      <c r="E9" s="34">
-        <v>0</v>
-      </c>
-      <c r="F9" s="34">
-        <v>0</v>
-      </c>
-      <c r="G9" s="34">
-        <v>0</v>
-      </c>
-      <c r="H9" s="34">
-        <v>0</v>
-      </c>
-      <c r="I9" s="34">
-        <v>0</v>
-      </c>
-      <c r="J9" s="34">
-        <v>0</v>
-      </c>
-      <c r="K9" s="34">
-        <v>0</v>
-      </c>
-      <c r="L9" s="34">
-        <v>0</v>
-      </c>
-      <c r="M9" s="34">
-        <v>0</v>
-      </c>
-      <c r="N9" s="34">
-        <v>0</v>
-      </c>
-      <c r="O9" s="34">
+      <c r="D12" s="27">
+        <v>0</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27">
         <v>3</v>
       </c>
-      <c r="P9" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="34">
-        <v>0</v>
-      </c>
-      <c r="R9" s="34">
-        <v>0</v>
-      </c>
-      <c r="S9" s="34">
-        <v>0</v>
-      </c>
-      <c r="T9" s="33">
+      <c r="G12" s="27">
+        <v>0</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0</v>
+      </c>
+      <c r="I12" s="27">
+        <v>0</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0</v>
+      </c>
+      <c r="K12" s="27">
+        <v>0</v>
+      </c>
+      <c r="L12" s="27">
+        <v>0</v>
+      </c>
+      <c r="M12" s="27">
+        <v>0</v>
+      </c>
+      <c r="N12" s="27">
+        <v>0</v>
+      </c>
+      <c r="O12" s="27">
+        <v>0</v>
+      </c>
+      <c r="P12" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>0</v>
+      </c>
+      <c r="R12" s="27">
+        <v>0</v>
+      </c>
+      <c r="S12" s="27">
+        <v>0</v>
+      </c>
+      <c r="T12" s="36">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="37">
+    <row r="13" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="30">
+        <v>3</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27">
+        <v>3</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0</v>
+      </c>
+      <c r="K13" s="27">
+        <v>0</v>
+      </c>
+      <c r="L13" s="27">
+        <v>0</v>
+      </c>
+      <c r="M13" s="27">
+        <v>0</v>
+      </c>
+      <c r="N13" s="27">
+        <v>0</v>
+      </c>
+      <c r="O13" s="27">
+        <v>0</v>
+      </c>
+      <c r="P13" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>0</v>
+      </c>
+      <c r="R13" s="27">
+        <v>0</v>
+      </c>
+      <c r="S13" s="27">
+        <v>0</v>
+      </c>
+      <c r="T13" s="36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="30">
         <v>2</v>
       </c>
-      <c r="D10" s="34">
-        <v>0</v>
-      </c>
-      <c r="E10" s="34">
-        <v>0</v>
-      </c>
-      <c r="F10" s="34">
-        <v>0</v>
-      </c>
-      <c r="G10" s="34">
-        <v>0</v>
-      </c>
-      <c r="H10" s="34">
-        <v>0</v>
-      </c>
-      <c r="I10" s="34">
-        <v>0</v>
-      </c>
-      <c r="J10" s="34">
-        <v>0</v>
-      </c>
-      <c r="K10" s="34">
-        <v>0</v>
-      </c>
-      <c r="L10" s="34">
-        <v>0</v>
-      </c>
-      <c r="M10" s="34">
-        <v>1</v>
-      </c>
-      <c r="N10" s="34">
-        <v>1</v>
-      </c>
-      <c r="O10" s="34">
-        <v>0</v>
-      </c>
-      <c r="P10" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="34">
-        <v>0</v>
-      </c>
-      <c r="R10" s="34">
-        <v>0</v>
-      </c>
-      <c r="S10" s="34">
-        <v>0</v>
-      </c>
-      <c r="T10" s="44">
+      <c r="D14" s="27">
+        <v>2</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0</v>
+      </c>
+      <c r="K14" s="27">
+        <v>0</v>
+      </c>
+      <c r="L14" s="27">
+        <v>0</v>
+      </c>
+      <c r="M14" s="27">
+        <v>0</v>
+      </c>
+      <c r="N14" s="27">
+        <v>0</v>
+      </c>
+      <c r="O14" s="27">
+        <v>0</v>
+      </c>
+      <c r="P14" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>0</v>
+      </c>
+      <c r="R14" s="27">
+        <v>0</v>
+      </c>
+      <c r="S14" s="27">
+        <v>0</v>
+      </c>
+      <c r="T14" s="36">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="37">
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="37"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="39"/>
+    </row>
+    <row r="16" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="23">
+        <f>SUM(C3:C14)</f>
+        <v>29</v>
+      </c>
+      <c r="D16" s="23">
+        <f>C16-SUM(D3:D14)</f>
+        <v>27</v>
+      </c>
+      <c r="E16" s="23">
+        <f>D16-SUM(E3:E14)</f>
+        <v>24</v>
+      </c>
+      <c r="F16" s="23">
+        <f>E16-SUM(F3:F14)</f>
+        <v>21</v>
+      </c>
+      <c r="G16" s="23">
+        <f>F16-SUM(G3:G14)</f>
+        <v>19</v>
+      </c>
+      <c r="H16" s="23">
+        <f>G16-SUM(H3:H14)</f>
+        <v>17</v>
+      </c>
+      <c r="I16" s="23">
+        <f>H16-SUM(I3:I14)</f>
+        <v>15</v>
+      </c>
+      <c r="J16" s="23">
+        <f>I16-SUM(J3:J14)</f>
+        <v>14</v>
+      </c>
+      <c r="K16" s="23">
+        <f>J16-SUM(K3:K14)</f>
+        <v>12</v>
+      </c>
+      <c r="L16" s="23">
+        <f>K16-SUM(L3:L14)</f>
+        <v>10</v>
+      </c>
+      <c r="M16" s="23">
+        <f>L16-SUM(M3:M14)</f>
+        <v>7</v>
+      </c>
+      <c r="N16" s="23">
+        <f>M16-SUM(N3:N14)</f>
+        <v>6</v>
+      </c>
+      <c r="O16" s="23">
+        <f>N16-SUM(O3:O14)</f>
+        <v>5</v>
+      </c>
+      <c r="P16" s="23">
+        <f>O16-SUM(P3:P14)</f>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="23">
+        <f>P16-SUM(Q3:Q14)</f>
         <v>2</v>
       </c>
-      <c r="D11" s="34">
-        <v>0</v>
-      </c>
-      <c r="E11" s="34">
-        <v>0</v>
-      </c>
-      <c r="F11" s="34">
-        <v>0</v>
-      </c>
-      <c r="G11" s="34">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34">
-        <v>0</v>
-      </c>
-      <c r="I11" s="34">
-        <v>0</v>
-      </c>
-      <c r="J11" s="34">
-        <v>0</v>
-      </c>
-      <c r="K11" s="34">
-        <v>0</v>
-      </c>
-      <c r="L11" s="34">
-        <v>2</v>
-      </c>
-      <c r="M11" s="34">
-        <v>0</v>
-      </c>
-      <c r="N11" s="34">
-        <v>0</v>
-      </c>
-      <c r="O11" s="34">
-        <v>0</v>
-      </c>
-      <c r="P11" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="34">
-        <v>0</v>
-      </c>
-      <c r="R11" s="34">
-        <v>0</v>
-      </c>
-      <c r="S11" s="34">
-        <v>0</v>
-      </c>
-      <c r="T11" s="44">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="R16" s="23">
+        <f>Q16-SUM(R3:R14)</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="23">
+        <f>R16-SUM(S3:S14)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="40"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="42"/>
     </row>
-    <row r="12" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="37">
-        <v>3</v>
-      </c>
-      <c r="D12" s="34">
-        <v>0</v>
-      </c>
-      <c r="E12" s="34">
-        <v>0</v>
-      </c>
-      <c r="F12" s="34">
-        <v>0</v>
-      </c>
-      <c r="G12" s="34">
-        <v>0</v>
-      </c>
-      <c r="H12" s="34">
-        <v>0</v>
-      </c>
-      <c r="I12" s="34">
-        <v>0</v>
-      </c>
-      <c r="J12" s="34">
-        <v>0</v>
-      </c>
-      <c r="K12" s="34">
-        <v>3</v>
-      </c>
-      <c r="L12" s="34">
-        <v>0</v>
-      </c>
-      <c r="M12" s="34">
-        <v>0</v>
-      </c>
-      <c r="N12" s="34">
-        <v>0</v>
-      </c>
-      <c r="O12" s="34">
-        <v>0</v>
-      </c>
-      <c r="P12" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="34">
-        <v>0</v>
-      </c>
-      <c r="R12" s="34">
-        <v>0</v>
-      </c>
-      <c r="S12" s="34">
-        <v>0</v>
-      </c>
-      <c r="T12" s="44">
-        <f t="shared" si="0"/>
-        <v>3</v>
+    <row r="17" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="23">
+        <f>SUM(C3:C14)</f>
+        <v>29</v>
+      </c>
+      <c r="D17" s="23">
+        <f>C17-(SUM(C3:C14)/16)</f>
+        <v>27.1875</v>
+      </c>
+      <c r="E17" s="23">
+        <f>D17-(SUM(C3:C14)/16)</f>
+        <v>25.375</v>
+      </c>
+      <c r="F17" s="23">
+        <f>E17-(SUM(C3:C14)/16)</f>
+        <v>23.5625</v>
+      </c>
+      <c r="G17" s="23">
+        <f>F17-(SUM(C3:C14)/16)</f>
+        <v>21.75</v>
+      </c>
+      <c r="H17" s="23">
+        <f>G17-(SUM(C3:C14)/16)</f>
+        <v>19.9375</v>
+      </c>
+      <c r="I17" s="23">
+        <f>H17-(SUM(C3:C14)/16)</f>
+        <v>18.125</v>
+      </c>
+      <c r="J17" s="23">
+        <f>I17-(SUM(C3:C14)/16)</f>
+        <v>16.3125</v>
+      </c>
+      <c r="K17" s="23">
+        <f>J17-(SUM(C3:C14)/16)</f>
+        <v>14.5</v>
+      </c>
+      <c r="L17" s="23">
+        <f>K17-(SUM(C3:C14)/16)</f>
+        <v>12.6875</v>
+      </c>
+      <c r="M17" s="23">
+        <f>L17-(SUM(C3:C14)/16)</f>
+        <v>10.875</v>
+      </c>
+      <c r="N17" s="23">
+        <f>M17-(SUM(C3:C14)/16)</f>
+        <v>9.0625</v>
+      </c>
+      <c r="O17" s="23">
+        <f>N17-(SUM(C3:C14)/16)</f>
+        <v>7.25</v>
+      </c>
+      <c r="P17" s="23">
+        <f>O17-(SUM(C3:C14)/16)</f>
+        <v>5.4375</v>
+      </c>
+      <c r="Q17" s="23">
+        <f>P17-(SUM(C3:C14)/16)</f>
+        <v>3.625</v>
+      </c>
+      <c r="R17" s="23">
+        <f>Q17-(SUM(C3:C14)/16)</f>
+        <v>1.8125</v>
+      </c>
+      <c r="S17" s="23">
+        <f>R17-(SUM(C3:C14)/16)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="37">
-        <v>1</v>
-      </c>
-      <c r="D13" s="34">
-        <v>0</v>
-      </c>
-      <c r="E13" s="34">
-        <v>0</v>
-      </c>
-      <c r="F13" s="34">
-        <v>0</v>
-      </c>
-      <c r="G13" s="34">
-        <v>0</v>
-      </c>
-      <c r="H13" s="34">
-        <v>0</v>
-      </c>
-      <c r="I13" s="34">
-        <v>0</v>
-      </c>
-      <c r="J13" s="34">
-        <v>1</v>
-      </c>
-      <c r="K13" s="34">
-        <v>0</v>
-      </c>
-      <c r="L13" s="34">
-        <v>0</v>
-      </c>
-      <c r="M13" s="34">
-        <v>0</v>
-      </c>
-      <c r="N13" s="34">
-        <v>0</v>
-      </c>
-      <c r="O13" s="34">
-        <v>0</v>
-      </c>
-      <c r="P13" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="34">
-        <v>0</v>
-      </c>
-      <c r="R13" s="34">
-        <v>0</v>
-      </c>
-      <c r="S13" s="34">
-        <v>0</v>
-      </c>
-      <c r="T13" s="44">
-        <f t="shared" si="0"/>
-        <v>1</v>
+    <row r="18" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="37">
-        <v>1</v>
-      </c>
-      <c r="D14" s="34">
-        <v>0</v>
-      </c>
-      <c r="E14" s="34">
-        <v>0</v>
-      </c>
-      <c r="F14" s="34">
-        <v>0</v>
-      </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
-      <c r="H14" s="34">
-        <v>0</v>
-      </c>
-      <c r="I14" s="34">
-        <v>1</v>
-      </c>
-      <c r="J14" s="34">
-        <v>0</v>
-      </c>
-      <c r="K14" s="34">
-        <v>0</v>
-      </c>
-      <c r="L14" s="34">
-        <v>0</v>
-      </c>
-      <c r="M14" s="34">
-        <v>0</v>
-      </c>
-      <c r="N14" s="34">
-        <v>0</v>
-      </c>
-      <c r="O14" s="34">
-        <v>0</v>
-      </c>
-      <c r="P14" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="34">
-        <v>0</v>
-      </c>
-      <c r="R14" s="34">
-        <v>0</v>
-      </c>
-      <c r="S14" s="34">
-        <v>0</v>
-      </c>
-      <c r="T14" s="44">
-        <f t="shared" si="0"/>
-        <v>1</v>
+    <row r="21" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="37">
-        <v>2</v>
-      </c>
-      <c r="D15" s="34">
-        <v>0</v>
-      </c>
-      <c r="E15" s="34">
-        <v>0</v>
-      </c>
-      <c r="F15" s="34">
-        <v>0</v>
-      </c>
-      <c r="G15" s="34">
-        <v>0</v>
-      </c>
-      <c r="H15" s="34">
-        <v>2</v>
-      </c>
-      <c r="I15" s="34">
-        <v>0</v>
-      </c>
-      <c r="J15" s="34">
-        <v>0</v>
-      </c>
-      <c r="K15" s="34">
-        <v>0</v>
-      </c>
-      <c r="L15" s="34">
-        <v>0</v>
-      </c>
-      <c r="M15" s="34">
-        <v>0</v>
-      </c>
-      <c r="N15" s="34">
-        <v>0</v>
-      </c>
-      <c r="O15" s="34">
-        <v>0</v>
-      </c>
-      <c r="P15" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="34">
-        <v>0</v>
-      </c>
-      <c r="R15" s="34">
-        <v>0</v>
-      </c>
-      <c r="S15" s="34">
-        <v>0</v>
-      </c>
-      <c r="T15" s="44">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="37">
-        <v>3</v>
-      </c>
-      <c r="D16" s="34">
-        <v>0</v>
-      </c>
-      <c r="E16" s="34">
-        <v>0</v>
-      </c>
-      <c r="F16" s="34">
-        <v>0</v>
-      </c>
-      <c r="G16" s="34">
-        <v>3</v>
-      </c>
-      <c r="H16" s="34">
-        <v>0</v>
-      </c>
-      <c r="I16" s="34">
-        <v>0</v>
-      </c>
-      <c r="J16" s="34">
-        <v>0</v>
-      </c>
-      <c r="K16" s="34">
-        <v>0</v>
-      </c>
-      <c r="L16" s="34">
-        <v>0</v>
-      </c>
-      <c r="M16" s="34">
-        <v>0</v>
-      </c>
-      <c r="N16" s="34">
-        <v>0</v>
-      </c>
-      <c r="O16" s="34">
-        <v>0</v>
-      </c>
-      <c r="P16" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="34">
-        <v>0</v>
-      </c>
-      <c r="R16" s="34">
-        <v>0</v>
-      </c>
-      <c r="S16" s="34">
-        <v>0</v>
-      </c>
-      <c r="T16" s="44">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="37">
-        <v>3</v>
-      </c>
-      <c r="D17" s="34">
-        <v>0</v>
-      </c>
-      <c r="E17" s="34">
-        <v>0</v>
-      </c>
-      <c r="F17" s="34">
-        <v>3</v>
-      </c>
-      <c r="G17" s="34">
-        <v>0</v>
-      </c>
-      <c r="H17" s="34">
-        <v>0</v>
-      </c>
-      <c r="I17" s="34">
-        <v>0</v>
-      </c>
-      <c r="J17" s="34">
-        <v>0</v>
-      </c>
-      <c r="K17" s="34">
-        <v>0</v>
-      </c>
-      <c r="L17" s="34">
-        <v>0</v>
-      </c>
-      <c r="M17" s="34">
-        <v>0</v>
-      </c>
-      <c r="N17" s="34">
-        <v>0</v>
-      </c>
-      <c r="O17" s="34">
-        <v>0</v>
-      </c>
-      <c r="P17" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="34">
-        <v>0</v>
-      </c>
-      <c r="R17" s="34">
-        <v>0</v>
-      </c>
-      <c r="S17" s="34">
-        <v>0</v>
-      </c>
-      <c r="T17" s="44">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="37">
-        <v>4</v>
-      </c>
-      <c r="D18" s="34">
-        <v>3</v>
-      </c>
-      <c r="E18" s="34">
-        <v>1</v>
-      </c>
-      <c r="F18" s="34">
-        <v>0</v>
-      </c>
-      <c r="G18" s="34">
-        <v>0</v>
-      </c>
-      <c r="H18" s="34">
-        <v>0</v>
-      </c>
-      <c r="I18" s="34">
-        <v>0</v>
-      </c>
-      <c r="J18" s="34">
-        <v>0</v>
-      </c>
-      <c r="K18" s="34">
-        <v>0</v>
-      </c>
-      <c r="L18" s="34">
-        <v>0</v>
-      </c>
-      <c r="M18" s="34">
-        <v>0</v>
-      </c>
-      <c r="N18" s="34">
-        <v>0</v>
-      </c>
-      <c r="O18" s="34">
-        <v>0</v>
-      </c>
-      <c r="P18" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="34">
-        <v>0</v>
-      </c>
-      <c r="R18" s="34">
-        <v>0</v>
-      </c>
-      <c r="S18" s="34">
-        <v>0</v>
-      </c>
-      <c r="T18" s="33">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V19" s="45"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="47"/>
-    </row>
-    <row r="20" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="30">
-        <f>SUM(C3:C18)</f>
-        <v>36</v>
-      </c>
-      <c r="D20" s="30">
-        <f t="shared" ref="D20:S20" si="1">C20-SUM(D3:D18)</f>
-        <v>33</v>
-      </c>
-      <c r="E20" s="30">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="F20" s="30">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="G20" s="30">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="H20" s="30">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I20" s="30">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="J20" s="30">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="K20" s="30">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="L20" s="30">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="M20" s="30">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="N20" s="30">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="O20" s="30">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="P20" s="30">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Q20" s="30">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="R20" s="30">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="S20" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="48"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="50"/>
-    </row>
-    <row r="21" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="30">
-        <f>SUM(C3:C18)</f>
-        <v>36</v>
-      </c>
-      <c r="D21" s="30">
-        <f>C21-(SUM(C3:C18)/16)</f>
-        <v>33.75</v>
-      </c>
-      <c r="E21" s="30">
-        <f>D21-(SUM(C3:C18)/16)</f>
-        <v>31.5</v>
-      </c>
-      <c r="F21" s="30">
-        <f>E21-(SUM(C3:C18)/16)</f>
-        <v>29.25</v>
-      </c>
-      <c r="G21" s="30">
-        <f>F21-(SUM(C3:C18)/16)</f>
-        <v>27</v>
-      </c>
-      <c r="H21" s="30">
-        <f>G21-(SUM(C3:C18)/16)</f>
-        <v>24.75</v>
-      </c>
-      <c r="I21" s="30">
-        <f>H21-(SUM(C3:C18)/16)</f>
-        <v>22.5</v>
-      </c>
-      <c r="J21" s="30">
-        <f>I21-(SUM(C3:C18)/16)</f>
-        <v>20.25</v>
-      </c>
-      <c r="K21" s="30">
-        <f>J21-(SUM(C3:C18)/16)</f>
-        <v>18</v>
-      </c>
-      <c r="L21" s="30">
-        <f>K21-(SUM(C3:C18)/16)</f>
-        <v>15.75</v>
-      </c>
-      <c r="M21" s="30">
-        <f>L21-(SUM(C3:C18)/16)</f>
-        <v>13.5</v>
-      </c>
-      <c r="N21" s="30">
-        <f>M21-(SUM(C3:C18)/16)</f>
-        <v>11.25</v>
-      </c>
-      <c r="O21" s="30">
-        <f>N21-(SUM(C3:C18)/16)</f>
-        <v>9</v>
-      </c>
-      <c r="P21" s="30">
-        <f>O21-(SUM(C3:C18)/16)</f>
-        <v>6.75</v>
-      </c>
-      <c r="Q21" s="30">
-        <f>P21-(SUM(C3:C18)/16)</f>
-        <v>4.5</v>
-      </c>
-      <c r="R21" s="30">
-        <f>Q21-(SUM(C3:C18)/16)</f>
-        <v>2.25</v>
-      </c>
-      <c r="S21" s="30">
-        <f>R21-(SUM(C3:C18)/16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6902,1220 +6240,11 @@
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="V19:AC20"/>
+    <mergeCell ref="V15:AC16"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="B1:I985"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="26" width="12.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="11">
-        <v>4</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-      <c r="I4" s="13">
-        <f t="shared" ref="I4:I5" si="0">SUM(D4:H4)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="11">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
-        <v>2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="8">
-        <f>SUM(C4:C5)</f>
-        <v>9</v>
-      </c>
-      <c r="D10" s="8">
-        <f>C10-SUM(D4:D5)</f>
-        <v>9</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" ref="E10:H10" si="1">D10-SUM(E4:E5)</f>
-        <v>7</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H10" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="8">
-        <f>SUM(C4:C5)</f>
-        <v>9</v>
-      </c>
-      <c r="D11" s="8">
-        <f>C11-(SUM(C4:C5)/5)</f>
-        <v>7.2</v>
-      </c>
-      <c r="E11" s="8">
-        <f>D11-(SUM(C4:C5)/5)</f>
-        <v>5.4</v>
-      </c>
-      <c r="F11" s="8">
-        <f>E11-(SUM(C4:C5)/5)</f>
-        <v>3.6000000000000005</v>
-      </c>
-      <c r="G11" s="8">
-        <f>F11-(SUM(C4:C5)/5)</f>
-        <v>1.8000000000000005</v>
-      </c>
-      <c r="H11" s="8">
-        <f>G11-(SUM(C4:C5)/5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B15:G22"/>
-  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>

--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/GN1_Backlog_VNo3.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/GN1_Backlog_VNo3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPE\Analisis&amp;Diseño\27837_G1_ADS\PREGAME\1. ELICITACIÓN\1.6 Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GitHub\27837_G1_ADS\PREGAME\1. ELICITACIÓN\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105633EF-5031-4F31-AB8A-F5D4449395BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD20A51-8CA2-4C01-AA4C-8B682C8E9A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <t>Tema</t>
   </si>
@@ -62,9 +62,6 @@
     <t>estatus</t>
   </si>
   <si>
-    <t>Alta</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t>así podre...</t>
-  </si>
-  <si>
-    <t>encargado</t>
   </si>
   <si>
     <t>Prioridad</t>
@@ -111,82 +105,19 @@
 Restantes</t>
   </si>
   <si>
-    <t>RF01-A</t>
-  </si>
-  <si>
-    <t>Crear medicamento</t>
-  </si>
-  <si>
     <t>Usuario / Cuidador</t>
   </si>
   <si>
-    <t>Registrar un nuevo medicamento con sus datos completos</t>
-  </si>
-  <si>
     <t>No Iniciado</t>
   </si>
   <si>
-    <t>RF01-B</t>
-  </si>
-  <si>
-    <t>Consultar medicamentos</t>
-  </si>
-  <si>
-    <t>RF01-C</t>
-  </si>
-  <si>
-    <t>Actualizar medicamento</t>
-  </si>
-  <si>
-    <t>Editar los datos de un medicamento existente</t>
-  </si>
-  <si>
-    <t>RF01-D</t>
-  </si>
-  <si>
-    <t>Eliminar medicamento</t>
-  </si>
-  <si>
-    <t>Borrar un medicamento registrado</t>
-  </si>
-  <si>
-    <t>RF02</t>
-  </si>
-  <si>
-    <t>Recordatorios de medicación</t>
-  </si>
-  <si>
-    <t>Visualizar la lista completa de medicamentos</t>
-  </si>
-  <si>
-    <t>Recibir alertas de toma</t>
-  </si>
-  <si>
-    <t>así podré…</t>
-  </si>
-  <si>
-    <t>Mantener control del tratamiento desde el inicio</t>
-  </si>
-  <si>
     <t>Marcelo Acuña</t>
   </si>
   <si>
-    <t>Revisar dosis, frecuencias y horarios</t>
-  </si>
-  <si>
     <t>Abner Arboleda</t>
   </si>
   <si>
-    <t>Mantener información actualizada</t>
-  </si>
-  <si>
     <t>Christian Bonifaz</t>
-  </si>
-  <si>
-    <t>Evitar confusiones eliminando datos obsoletos</t>
-  </si>
-  <si>
-    <t>Evitar olvidos y mantener adherencia al tratamiento</t>
   </si>
   <si>
     <t>Tareas</t>
@@ -394,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -421,11 +352,6 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <b/>
@@ -516,18 +442,12 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -699,7 +619,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -707,107 +627,105 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,7 +1143,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2087969067"/>
@@ -1316,7 +1234,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="416555524"/>
@@ -1358,7 +1276,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1388,7 +1306,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1668,7 +1586,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1710,82 +1628,82 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" s="9" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>71</v>
+    <row r="2" spans="1:26" s="6" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>71</v>
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="66" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>71</v>
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2781,8 +2699,8 @@
   </sheetPr>
   <dimension ref="A1:AA948"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="117" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2797,573 +2715,506 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+    </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>27</v>
-      </c>
+    <row r="4" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>27</v>
-      </c>
+    <row r="5" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>27</v>
-      </c>
+    <row r="6" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="40"/>
     </row>
-    <row r="7" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>27</v>
-      </c>
+    <row r="7" spans="1:27" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>27</v>
-      </c>
+    <row r="8" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="40"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+    </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>13</v>
+      <c r="I12" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>27</v>
+      <c r="B13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13" t="s">
-        <v>14</v>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="G15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="B15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="G16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="B16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="G17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="12">
+      <c r="B17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="G18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="B18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="15"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>27</v>
+      <c r="B20" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15" t="s">
-        <v>14</v>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12">
+      <c r="B22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12">
+      <c r="B23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12">
+      <c r="B24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12">
+    <row r="25" spans="2:9" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="B26" s="10"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>27</v>
+      <c r="B27" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15" t="s">
-        <v>14</v>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="12">
+      <c r="B29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="12">
+      <c r="B30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:9" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="12">
+    <row r="31" spans="2:9" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="12">
+      <c r="B32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I33" s="12"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4281,7 +4132,7 @@
     <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -4294,968 +4145,968 @@
   </sheetPr>
   <dimension ref="A1:AC989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="22" customWidth="1"/>
-    <col min="3" max="19" width="12.44140625" style="22" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" style="22" customWidth="1"/>
-    <col min="21" max="37" width="12.44140625" style="22" customWidth="1"/>
-    <col min="38" max="16384" width="12.5546875" style="22"/>
+    <col min="1" max="1" width="4.33203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="18" customWidth="1"/>
+    <col min="3" max="19" width="12.44140625" style="18" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" style="18" customWidth="1"/>
+    <col min="21" max="37" width="12.44140625" style="18" customWidth="1"/>
+    <col min="38" max="16384" width="12.5546875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:29" s="31" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35"/>
-      <c r="C2" s="32" t="s">
+    <row r="2" spans="1:29" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31"/>
+      <c r="C2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="34" t="s">
+      <c r="Q2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="R2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="S2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="T2" s="28" t="s">
         <v>18</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="32" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="30">
+      <c r="B3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="26">
         <v>2</v>
       </c>
-      <c r="D3" s="27">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
-        <v>0</v>
-      </c>
-      <c r="F3" s="27">
-        <v>0</v>
-      </c>
-      <c r="G3" s="27">
-        <v>0</v>
-      </c>
-      <c r="H3" s="27">
-        <v>0</v>
-      </c>
-      <c r="I3" s="27">
-        <v>0</v>
-      </c>
-      <c r="J3" s="27">
-        <v>0</v>
-      </c>
-      <c r="K3" s="27">
-        <v>0</v>
-      </c>
-      <c r="L3" s="27">
-        <v>0</v>
-      </c>
-      <c r="M3" s="27">
-        <v>0</v>
-      </c>
-      <c r="N3" s="27">
-        <v>0</v>
-      </c>
-      <c r="O3" s="27">
-        <v>0</v>
-      </c>
-      <c r="P3" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="27">
-        <v>0</v>
-      </c>
-      <c r="R3" s="27">
+      <c r="D3" s="23">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0</v>
+      </c>
+      <c r="I3" s="23">
+        <v>0</v>
+      </c>
+      <c r="J3" s="23">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23">
+        <v>0</v>
+      </c>
+      <c r="L3" s="23">
+        <v>0</v>
+      </c>
+      <c r="M3" s="23">
+        <v>0</v>
+      </c>
+      <c r="N3" s="23">
+        <v>0</v>
+      </c>
+      <c r="O3" s="23">
+        <v>0</v>
+      </c>
+      <c r="P3" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>0</v>
+      </c>
+      <c r="R3" s="23">
         <v>1</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3" s="23">
         <v>1</v>
       </c>
-      <c r="T3" s="26">
+      <c r="T3" s="22">
         <f t="shared" ref="T3:T14" si="0">SUM(D3:S3)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="30">
+      <c r="B4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="26">
         <v>3</v>
       </c>
-      <c r="D4" s="27">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>0</v>
-      </c>
-      <c r="G4" s="27">
-        <v>0</v>
-      </c>
-      <c r="H4" s="27">
-        <v>0</v>
-      </c>
-      <c r="I4" s="27">
-        <v>0</v>
-      </c>
-      <c r="J4" s="27">
-        <v>0</v>
-      </c>
-      <c r="K4" s="27">
-        <v>0</v>
-      </c>
-      <c r="L4" s="27">
-        <v>0</v>
-      </c>
-      <c r="M4" s="27">
-        <v>0</v>
-      </c>
-      <c r="N4" s="27">
-        <v>0</v>
-      </c>
-      <c r="O4" s="27">
-        <v>0</v>
-      </c>
-      <c r="P4" s="27">
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23">
+        <v>0</v>
+      </c>
+      <c r="L4" s="23">
+        <v>0</v>
+      </c>
+      <c r="M4" s="23">
+        <v>0</v>
+      </c>
+      <c r="N4" s="23">
+        <v>0</v>
+      </c>
+      <c r="O4" s="23">
+        <v>0</v>
+      </c>
+      <c r="P4" s="23">
         <v>1</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="23">
         <v>2</v>
       </c>
-      <c r="R4" s="27">
-        <v>0</v>
-      </c>
-      <c r="S4" s="27">
-        <v>0</v>
-      </c>
-      <c r="T4" s="26">
+      <c r="R4" s="23">
+        <v>0</v>
+      </c>
+      <c r="S4" s="23">
+        <v>0</v>
+      </c>
+      <c r="T4" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="A5" s="25"/>
+      <c r="B5" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="26">
         <v>3</v>
       </c>
-      <c r="D5" s="27">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27">
-        <v>0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0</v>
-      </c>
-      <c r="G5" s="27">
-        <v>0</v>
-      </c>
-      <c r="H5" s="27">
-        <v>0</v>
-      </c>
-      <c r="I5" s="27">
-        <v>0</v>
-      </c>
-      <c r="J5" s="27">
-        <v>0</v>
-      </c>
-      <c r="K5" s="27">
-        <v>0</v>
-      </c>
-      <c r="L5" s="27">
-        <v>0</v>
-      </c>
-      <c r="M5" s="27">
+      <c r="D5" s="23">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0</v>
+      </c>
+      <c r="M5" s="23">
         <v>1</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="23">
         <v>1</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="23">
         <v>1</v>
       </c>
-      <c r="P5" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="27">
-        <v>0</v>
-      </c>
-      <c r="R5" s="27">
-        <v>0</v>
-      </c>
-      <c r="S5" s="27">
-        <v>0</v>
-      </c>
-      <c r="T5" s="26">
+      <c r="P5" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>0</v>
+      </c>
+      <c r="R5" s="23">
+        <v>0</v>
+      </c>
+      <c r="S5" s="23">
+        <v>0</v>
+      </c>
+      <c r="T5" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="30">
+      <c r="A6" s="25"/>
+      <c r="B6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="26">
         <v>2</v>
       </c>
-      <c r="D6" s="27">
-        <v>0</v>
-      </c>
-      <c r="E6" s="27">
-        <v>0</v>
-      </c>
-      <c r="F6" s="27">
-        <v>0</v>
-      </c>
-      <c r="G6" s="27">
-        <v>0</v>
-      </c>
-      <c r="H6" s="27">
-        <v>0</v>
-      </c>
-      <c r="I6" s="27">
-        <v>0</v>
-      </c>
-      <c r="J6" s="27">
-        <v>0</v>
-      </c>
-      <c r="K6" s="27">
-        <v>0</v>
-      </c>
-      <c r="L6" s="27">
-        <v>0</v>
-      </c>
-      <c r="M6" s="27">
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0</v>
+      </c>
+      <c r="M6" s="23">
         <v>2</v>
       </c>
-      <c r="N6" s="27">
-        <v>0</v>
-      </c>
-      <c r="O6" s="27">
-        <v>0</v>
-      </c>
-      <c r="P6" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="27">
-        <v>0</v>
-      </c>
-      <c r="R6" s="27">
-        <v>0</v>
-      </c>
-      <c r="S6" s="27">
-        <v>0</v>
-      </c>
-      <c r="T6" s="26">
+      <c r="N6" s="23">
+        <v>0</v>
+      </c>
+      <c r="O6" s="23">
+        <v>0</v>
+      </c>
+      <c r="P6" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>0</v>
+      </c>
+      <c r="R6" s="23">
+        <v>0</v>
+      </c>
+      <c r="S6" s="23">
+        <v>0</v>
+      </c>
+      <c r="T6" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="30">
+      <c r="A7" s="25"/>
+      <c r="B7" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="26">
         <v>2</v>
       </c>
-      <c r="D7" s="27">
-        <v>0</v>
-      </c>
-      <c r="E7" s="27">
-        <v>0</v>
-      </c>
-      <c r="F7" s="27">
-        <v>0</v>
-      </c>
-      <c r="G7" s="27">
-        <v>0</v>
-      </c>
-      <c r="H7" s="27">
-        <v>0</v>
-      </c>
-      <c r="I7" s="27">
-        <v>0</v>
-      </c>
-      <c r="J7" s="27">
-        <v>0</v>
-      </c>
-      <c r="K7" s="27">
-        <v>0</v>
-      </c>
-      <c r="L7" s="27">
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0</v>
+      </c>
+      <c r="J7" s="23">
+        <v>0</v>
+      </c>
+      <c r="K7" s="23">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23">
         <v>2</v>
       </c>
-      <c r="M7" s="27">
-        <v>0</v>
-      </c>
-      <c r="N7" s="27">
-        <v>0</v>
-      </c>
-      <c r="O7" s="27">
-        <v>0</v>
-      </c>
-      <c r="P7" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="27">
-        <v>0</v>
-      </c>
-      <c r="R7" s="27">
-        <v>0</v>
-      </c>
-      <c r="S7" s="27">
-        <v>0</v>
-      </c>
-      <c r="T7" s="26">
+      <c r="M7" s="23">
+        <v>0</v>
+      </c>
+      <c r="N7" s="23">
+        <v>0</v>
+      </c>
+      <c r="O7" s="23">
+        <v>0</v>
+      </c>
+      <c r="P7" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>0</v>
+      </c>
+      <c r="R7" s="23">
+        <v>0</v>
+      </c>
+      <c r="S7" s="23">
+        <v>0</v>
+      </c>
+      <c r="T7" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="30">
+      <c r="A8" s="25"/>
+      <c r="B8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="26">
         <v>3</v>
       </c>
-      <c r="D8" s="27">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27">
-        <v>0</v>
-      </c>
-      <c r="F8" s="27">
-        <v>0</v>
-      </c>
-      <c r="G8" s="27">
-        <v>0</v>
-      </c>
-      <c r="H8" s="27">
-        <v>0</v>
-      </c>
-      <c r="I8" s="27">
-        <v>0</v>
-      </c>
-      <c r="J8" s="27">
+      <c r="D8" s="23">
+        <v>0</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0</v>
+      </c>
+      <c r="J8" s="23">
         <v>1</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="23">
         <v>2</v>
       </c>
-      <c r="L8" s="27">
-        <v>0</v>
-      </c>
-      <c r="M8" s="27">
-        <v>0</v>
-      </c>
-      <c r="N8" s="27">
-        <v>0</v>
-      </c>
-      <c r="O8" s="27">
-        <v>0</v>
-      </c>
-      <c r="P8" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="27">
-        <v>0</v>
-      </c>
-      <c r="R8" s="27">
-        <v>0</v>
-      </c>
-      <c r="S8" s="27">
-        <v>0</v>
-      </c>
-      <c r="T8" s="26">
+      <c r="L8" s="23">
+        <v>0</v>
+      </c>
+      <c r="M8" s="23">
+        <v>0</v>
+      </c>
+      <c r="N8" s="23">
+        <v>0</v>
+      </c>
+      <c r="O8" s="23">
+        <v>0</v>
+      </c>
+      <c r="P8" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>0</v>
+      </c>
+      <c r="R8" s="23">
+        <v>0</v>
+      </c>
+      <c r="S8" s="23">
+        <v>0</v>
+      </c>
+      <c r="T8" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="30">
+      <c r="A9" s="25"/>
+      <c r="B9" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="26">
         <v>2</v>
       </c>
-      <c r="D9" s="27">
-        <v>0</v>
-      </c>
-      <c r="E9" s="27">
-        <v>0</v>
-      </c>
-      <c r="F9" s="27">
-        <v>0</v>
-      </c>
-      <c r="G9" s="27">
-        <v>0</v>
-      </c>
-      <c r="H9" s="27">
-        <v>0</v>
-      </c>
-      <c r="I9" s="27">
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0</v>
+      </c>
+      <c r="I9" s="23">
         <v>2</v>
       </c>
-      <c r="J9" s="27">
-        <v>0</v>
-      </c>
-      <c r="K9" s="27">
-        <v>0</v>
-      </c>
-      <c r="L9" s="27">
-        <v>0</v>
-      </c>
-      <c r="M9" s="27">
-        <v>0</v>
-      </c>
-      <c r="N9" s="27">
-        <v>0</v>
-      </c>
-      <c r="O9" s="27">
-        <v>0</v>
-      </c>
-      <c r="P9" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="27">
-        <v>0</v>
-      </c>
-      <c r="R9" s="27">
-        <v>0</v>
-      </c>
-      <c r="S9" s="27">
-        <v>0</v>
-      </c>
-      <c r="T9" s="26">
+      <c r="J9" s="23">
+        <v>0</v>
+      </c>
+      <c r="K9" s="23">
+        <v>0</v>
+      </c>
+      <c r="L9" s="23">
+        <v>0</v>
+      </c>
+      <c r="M9" s="23">
+        <v>0</v>
+      </c>
+      <c r="N9" s="23">
+        <v>0</v>
+      </c>
+      <c r="O9" s="23">
+        <v>0</v>
+      </c>
+      <c r="P9" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>0</v>
+      </c>
+      <c r="R9" s="23">
+        <v>0</v>
+      </c>
+      <c r="S9" s="23">
+        <v>0</v>
+      </c>
+      <c r="T9" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="30">
+      <c r="A10" s="25"/>
+      <c r="B10" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="26">
         <v>2</v>
       </c>
-      <c r="D10" s="27">
-        <v>0</v>
-      </c>
-      <c r="E10" s="27">
-        <v>0</v>
-      </c>
-      <c r="F10" s="27">
-        <v>0</v>
-      </c>
-      <c r="G10" s="27">
-        <v>0</v>
-      </c>
-      <c r="H10" s="27">
+      <c r="D10" s="23">
+        <v>0</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0</v>
+      </c>
+      <c r="H10" s="23">
         <v>2</v>
       </c>
-      <c r="I10" s="27">
-        <v>0</v>
-      </c>
-      <c r="J10" s="27">
-        <v>0</v>
-      </c>
-      <c r="K10" s="27">
-        <v>0</v>
-      </c>
-      <c r="L10" s="27">
-        <v>0</v>
-      </c>
-      <c r="M10" s="27">
-        <v>0</v>
-      </c>
-      <c r="N10" s="27">
-        <v>0</v>
-      </c>
-      <c r="O10" s="27">
-        <v>0</v>
-      </c>
-      <c r="P10" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="27">
-        <v>0</v>
-      </c>
-      <c r="R10" s="27">
-        <v>0</v>
-      </c>
-      <c r="S10" s="27">
-        <v>0</v>
-      </c>
-      <c r="T10" s="36">
+      <c r="I10" s="23">
+        <v>0</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0</v>
+      </c>
+      <c r="K10" s="23">
+        <v>0</v>
+      </c>
+      <c r="L10" s="23">
+        <v>0</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0</v>
+      </c>
+      <c r="N10" s="23">
+        <v>0</v>
+      </c>
+      <c r="O10" s="23">
+        <v>0</v>
+      </c>
+      <c r="P10" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>0</v>
+      </c>
+      <c r="R10" s="23">
+        <v>0</v>
+      </c>
+      <c r="S10" s="23">
+        <v>0</v>
+      </c>
+      <c r="T10" s="32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="30">
+      <c r="A11" s="25"/>
+      <c r="B11" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="26">
         <v>2</v>
       </c>
-      <c r="D11" s="27">
-        <v>0</v>
-      </c>
-      <c r="E11" s="27">
-        <v>0</v>
-      </c>
-      <c r="F11" s="27">
-        <v>0</v>
-      </c>
-      <c r="G11" s="27">
+      <c r="D11" s="23">
+        <v>0</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
         <v>2</v>
       </c>
-      <c r="H11" s="27">
-        <v>0</v>
-      </c>
-      <c r="I11" s="27">
-        <v>0</v>
-      </c>
-      <c r="J11" s="27">
-        <v>0</v>
-      </c>
-      <c r="K11" s="27">
-        <v>0</v>
-      </c>
-      <c r="L11" s="27">
-        <v>0</v>
-      </c>
-      <c r="M11" s="27">
-        <v>0</v>
-      </c>
-      <c r="N11" s="27">
-        <v>0</v>
-      </c>
-      <c r="O11" s="27">
-        <v>0</v>
-      </c>
-      <c r="P11" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="27">
-        <v>0</v>
-      </c>
-      <c r="R11" s="27">
-        <v>0</v>
-      </c>
-      <c r="S11" s="27">
-        <v>0</v>
-      </c>
-      <c r="T11" s="36">
+      <c r="H11" s="23">
+        <v>0</v>
+      </c>
+      <c r="I11" s="23">
+        <v>0</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+      <c r="M11" s="23">
+        <v>0</v>
+      </c>
+      <c r="N11" s="23">
+        <v>0</v>
+      </c>
+      <c r="O11" s="23">
+        <v>0</v>
+      </c>
+      <c r="P11" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>0</v>
+      </c>
+      <c r="R11" s="23">
+        <v>0</v>
+      </c>
+      <c r="S11" s="23">
+        <v>0</v>
+      </c>
+      <c r="T11" s="32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="30">
+      <c r="A12" s="25"/>
+      <c r="B12" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="26">
         <v>3</v>
       </c>
-      <c r="D12" s="27">
-        <v>0</v>
-      </c>
-      <c r="E12" s="27">
-        <v>0</v>
-      </c>
-      <c r="F12" s="27">
+      <c r="D12" s="23">
+        <v>0</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0</v>
+      </c>
+      <c r="F12" s="23">
         <v>3</v>
       </c>
-      <c r="G12" s="27">
-        <v>0</v>
-      </c>
-      <c r="H12" s="27">
-        <v>0</v>
-      </c>
-      <c r="I12" s="27">
-        <v>0</v>
-      </c>
-      <c r="J12" s="27">
-        <v>0</v>
-      </c>
-      <c r="K12" s="27">
-        <v>0</v>
-      </c>
-      <c r="L12" s="27">
-        <v>0</v>
-      </c>
-      <c r="M12" s="27">
-        <v>0</v>
-      </c>
-      <c r="N12" s="27">
-        <v>0</v>
-      </c>
-      <c r="O12" s="27">
-        <v>0</v>
-      </c>
-      <c r="P12" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="27">
-        <v>0</v>
-      </c>
-      <c r="R12" s="27">
-        <v>0</v>
-      </c>
-      <c r="S12" s="27">
-        <v>0</v>
-      </c>
-      <c r="T12" s="36">
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0</v>
+      </c>
+      <c r="L12" s="23">
+        <v>0</v>
+      </c>
+      <c r="M12" s="23">
+        <v>0</v>
+      </c>
+      <c r="N12" s="23">
+        <v>0</v>
+      </c>
+      <c r="O12" s="23">
+        <v>0</v>
+      </c>
+      <c r="P12" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>0</v>
+      </c>
+      <c r="R12" s="23">
+        <v>0</v>
+      </c>
+      <c r="S12" s="23">
+        <v>0</v>
+      </c>
+      <c r="T12" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="30">
+      <c r="A13" s="25"/>
+      <c r="B13" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="26">
         <v>3</v>
       </c>
-      <c r="D13" s="27">
-        <v>0</v>
-      </c>
-      <c r="E13" s="27">
+      <c r="D13" s="23">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23">
         <v>3</v>
       </c>
-      <c r="F13" s="27">
-        <v>0</v>
-      </c>
-      <c r="G13" s="27">
-        <v>0</v>
-      </c>
-      <c r="H13" s="27">
-        <v>0</v>
-      </c>
-      <c r="I13" s="27">
-        <v>0</v>
-      </c>
-      <c r="J13" s="27">
-        <v>0</v>
-      </c>
-      <c r="K13" s="27">
-        <v>0</v>
-      </c>
-      <c r="L13" s="27">
-        <v>0</v>
-      </c>
-      <c r="M13" s="27">
-        <v>0</v>
-      </c>
-      <c r="N13" s="27">
-        <v>0</v>
-      </c>
-      <c r="O13" s="27">
-        <v>0</v>
-      </c>
-      <c r="P13" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="27">
-        <v>0</v>
-      </c>
-      <c r="R13" s="27">
-        <v>0</v>
-      </c>
-      <c r="S13" s="27">
-        <v>0</v>
-      </c>
-      <c r="T13" s="36">
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0</v>
+      </c>
+      <c r="I13" s="23">
+        <v>0</v>
+      </c>
+      <c r="J13" s="23">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0</v>
+      </c>
+      <c r="M13" s="23">
+        <v>0</v>
+      </c>
+      <c r="N13" s="23">
+        <v>0</v>
+      </c>
+      <c r="O13" s="23">
+        <v>0</v>
+      </c>
+      <c r="P13" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="23">
+        <v>0</v>
+      </c>
+      <c r="R13" s="23">
+        <v>0</v>
+      </c>
+      <c r="S13" s="23">
+        <v>0</v>
+      </c>
+      <c r="T13" s="32">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="30">
+      <c r="A14" s="25"/>
+      <c r="B14" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="26">
         <v>2</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="23">
         <v>2</v>
       </c>
-      <c r="E14" s="27">
-        <v>0</v>
-      </c>
-      <c r="F14" s="27">
-        <v>0</v>
-      </c>
-      <c r="G14" s="27">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0</v>
-      </c>
-      <c r="I14" s="27">
-        <v>0</v>
-      </c>
-      <c r="J14" s="27">
-        <v>0</v>
-      </c>
-      <c r="K14" s="27">
-        <v>0</v>
-      </c>
-      <c r="L14" s="27">
-        <v>0</v>
-      </c>
-      <c r="M14" s="27">
-        <v>0</v>
-      </c>
-      <c r="N14" s="27">
-        <v>0</v>
-      </c>
-      <c r="O14" s="27">
-        <v>0</v>
-      </c>
-      <c r="P14" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="27">
-        <v>0</v>
-      </c>
-      <c r="R14" s="27">
-        <v>0</v>
-      </c>
-      <c r="S14" s="27">
-        <v>0</v>
-      </c>
-      <c r="T14" s="36">
+      <c r="E14" s="23">
+        <v>0</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0</v>
+      </c>
+      <c r="J14" s="23">
+        <v>0</v>
+      </c>
+      <c r="K14" s="23">
+        <v>0</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0</v>
+      </c>
+      <c r="M14" s="23">
+        <v>0</v>
+      </c>
+      <c r="N14" s="23">
+        <v>0</v>
+      </c>
+      <c r="O14" s="23">
+        <v>0</v>
+      </c>
+      <c r="P14" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="23">
+        <v>0</v>
+      </c>
+      <c r="R14" s="23">
+        <v>0</v>
+      </c>
+      <c r="S14" s="23">
+        <v>0</v>
+      </c>
+      <c r="T14" s="32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V15" s="37"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="39"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="36"/>
     </row>
     <row r="16" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="23">
+      <c r="B16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="19">
         <f>SUM(C3:C14)</f>
         <v>29</v>
       </c>
-      <c r="D16" s="23">
-        <f>C16-SUM(D3:D14)</f>
+      <c r="D16" s="19">
+        <f t="shared" ref="D16:S16" si="1">C16-SUM(D3:D14)</f>
         <v>27</v>
       </c>
-      <c r="E16" s="23">
-        <f>D16-SUM(E3:E14)</f>
+      <c r="E16" s="19">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F16" s="23">
-        <f>E16-SUM(F3:F14)</f>
+      <c r="F16" s="19">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G16" s="23">
-        <f>F16-SUM(G3:G14)</f>
+      <c r="G16" s="19">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="H16" s="23">
-        <f>G16-SUM(H3:H14)</f>
+      <c r="H16" s="19">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I16" s="23">
-        <f>H16-SUM(I3:I14)</f>
+      <c r="I16" s="19">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J16" s="23">
-        <f>I16-SUM(J3:J14)</f>
+      <c r="J16" s="19">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K16" s="23">
-        <f>J16-SUM(K3:K14)</f>
+      <c r="K16" s="19">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L16" s="23">
-        <f>K16-SUM(L3:L14)</f>
+      <c r="L16" s="19">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M16" s="23">
-        <f>L16-SUM(M3:M14)</f>
+      <c r="M16" s="19">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="N16" s="23">
-        <f>M16-SUM(N3:N14)</f>
+      <c r="N16" s="19">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="O16" s="23">
-        <f>N16-SUM(O3:O14)</f>
+      <c r="O16" s="19">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="P16" s="23">
-        <f>O16-SUM(P3:P14)</f>
+      <c r="P16" s="19">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Q16" s="23">
-        <f>P16-SUM(Q3:Q14)</f>
+      <c r="Q16" s="19">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="R16" s="23">
-        <f>Q16-SUM(R3:R14)</f>
+      <c r="R16" s="19">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S16" s="23">
-        <f>R16-SUM(S3:S14)</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="40"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="42"/>
+      <c r="S16" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="37"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="39"/>
     </row>
     <row r="17" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="23">
+      <c r="B17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="19">
         <f>SUM(C3:C14)</f>
         <v>29</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="19">
         <f>C17-(SUM(C3:C14)/16)</f>
         <v>27.1875</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="19">
         <f>D17-(SUM(C3:C14)/16)</f>
         <v>25.375</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="19">
         <f>E17-(SUM(C3:C14)/16)</f>
         <v>23.5625</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="19">
         <f>F17-(SUM(C3:C14)/16)</f>
         <v>21.75</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="19">
         <f>G17-(SUM(C3:C14)/16)</f>
         <v>19.9375</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="19">
         <f>H17-(SUM(C3:C14)/16)</f>
         <v>18.125</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="19">
         <f>I17-(SUM(C3:C14)/16)</f>
         <v>16.3125</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="19">
         <f>J17-(SUM(C3:C14)/16)</f>
         <v>14.5</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="19">
         <f>K17-(SUM(C3:C14)/16)</f>
         <v>12.6875</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="19">
         <f>L17-(SUM(C3:C14)/16)</f>
         <v>10.875</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="19">
         <f>M17-(SUM(C3:C14)/16)</f>
         <v>9.0625</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="19">
         <f>N17-(SUM(C3:C14)/16)</f>
         <v>7.25</v>
       </c>
-      <c r="P17" s="23">
+      <c r="P17" s="19">
         <f>O17-(SUM(C3:C14)/16)</f>
         <v>5.4375</v>
       </c>
-      <c r="Q17" s="23">
+      <c r="Q17" s="19">
         <f>P17-(SUM(C3:C14)/16)</f>
         <v>3.625</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="19">
         <f>Q17-(SUM(C3:C14)/16)</f>
         <v>1.8125</v>
       </c>
-      <c r="S17" s="23">
+      <c r="S17" s="19">
         <f>R17-(SUM(C3:C14)/16)</f>
         <v>0</v>
       </c>
@@ -5263,13 +5114,13 @@
     <row r="18" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
-        <v>52</v>
+      <c r="B20" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
-        <v>51</v>
+      <c r="B21" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6244,7 +6095,7 @@
   <mergeCells count="1">
     <mergeCell ref="V15:AC16"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
